--- a/medicine/Enfance/Anne_Bertier/Anne_Bertier.xlsx
+++ b/medicine/Enfance/Anne_Bertier/Anne_Bertier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne Bertier (née en 1956) est une auteure et illustratrice française en littérature jeunesse.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anne Bertier est née à Brognon, dans le département de la Côte-d'Or. Elle a étudié les lettres modernes et le mime. À partir de 1995, elle se lance dans l'illustration pour enfants, aux éditions Grandir. En 2004, sa rencontre avec Christine Morault la fait rejoindre les éditions MeMo. Elle développe depuis un travail très graphique autour des formes géométriques. Elle participe à de nombreuses rencontres, dans les écoles, les hôpitaux, les bibliothèques[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anne Bertier est née à Brognon, dans le département de la Côte-d'Or. Elle a étudié les lettres modernes et le mime. À partir de 1995, elle se lance dans l'illustration pour enfants, aux éditions Grandir. En 2004, sa rencontre avec Christine Morault la fait rejoindre les éditions MeMo. Elle développe depuis un travail très graphique autour des formes géométriques. Elle participe à de nombreuses rencontres, dans les écoles, les hôpitaux, les bibliothèques.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2009, elle obtient la Plaque d'Or de la Biennale internationale de l’illustration de Bratislava pour Construis-moi une lettre et pour Dessine-moi une lettre. 
 En 2011, elle obtient le Prix Pitchou, catégorie « tout petits » pour Mercredi (éditions MeMo).
@@ -574,9 +590,11 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Elle a participé à de nombreuses œuvres[4],[5],[6] dont :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Elle a participé à de nombreuses œuvres dont :
 Au fil des pages, des étoiles (1997)
 Mon loup (2000)
 Le Balcon (2003)
